--- a/resources/카탈로그/카탈디비.xlsx
+++ b/resources/카탈로그/카탈디비.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modelmaker\remoteCode\ACNH\Git Remote\resources\카탈로그\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE491D83-52A3-47F1-8B4E-5239F7540299}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E30D65-60B8-451C-94EE-BFED892AD7F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{2B096AB0-120D-4186-A0B1-5BB772C6E557}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{3A71F28E-2A8A-414F-BABF-14B2193B83B3}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{B2BB56DF-1DAB-40F6-B5A2-2B4DC8A279FA}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{3A71F28E-2A8A-414F-BABF-14B2193B83B3}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{2B096AB0-120D-4186-A0B1-5BB772C6E557}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -116,24 +116,6 @@
     <t>VFX</t>
   </si>
   <si>
-    <t>Window Type</t>
-  </si>
-  <si>
-    <t>Window Color</t>
-  </si>
-  <si>
-    <t>Pane Type</t>
-  </si>
-  <si>
-    <t>Curtain Type</t>
-  </si>
-  <si>
-    <t>Curtain Color</t>
-  </si>
-  <si>
-    <t>Ceiling Type</t>
-  </si>
-  <si>
     <t>Customize</t>
   </si>
   <si>
@@ -156,12 +138,6 @@
   </si>
   <si>
     <t>Label Themes</t>
-  </si>
-  <si>
-    <t>Primary Shape</t>
-  </si>
-  <si>
-    <t>Secondary Shape</t>
   </si>
   <si>
     <t>Type</t>
@@ -526,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30ED5228-4892-417D-956A-B250DAECD1FE}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -540,64 +516,64 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
       <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>55</v>
       </c>
-      <c r="P1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S1" t="s">
-        <v>63</v>
-      </c>
       <c r="T1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="U1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -729,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -759,31 +735,31 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="S4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="T4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="U4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="V4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -1063,7 +1039,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="N10" t="s">
         <v>12</v>
@@ -1319,34 +1295,34 @@
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="S18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="T18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="V18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
@@ -1366,28 +1342,28 @@
         <v>22</v>
       </c>
       <c r="N19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="R19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="S19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="T19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="U19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
@@ -1407,28 +1383,28 @@
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="O20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="P20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="S20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="T20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="U20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
@@ -1445,28 +1421,28 @@
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="O21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="R21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="S21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="U21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
@@ -1580,14 +1556,11 @@
       <c r="J27" t="s">
         <v>18</v>
       </c>
-      <c r="P27" t="s">
-        <v>41</v>
-      </c>
       <c r="Q27" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="R27" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
@@ -1610,10 +1583,7 @@
         <v>19</v>
       </c>
       <c r="L28" t="s">
-        <v>33</v>
-      </c>
-      <c r="P28" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
@@ -1629,19 +1599,16 @@
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="L31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" t="s">
         <v>27</v>
       </c>
       <c r="H32" t="s">
@@ -1655,9 +1622,6 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G33" t="s">
-        <v>28</v>
-      </c>
       <c r="H33" t="s">
         <v>8</v>
       </c>
@@ -1666,26 +1630,6 @@
       </c>
       <c r="J33" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G37" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
@@ -1699,82 +1643,82 @@
         <v>24</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="H39" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E40" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/resources/카탈로그/카탈디비.xlsx
+++ b/resources/카탈로그/카탈디비.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modelmaker\remoteCode\ACNH\Git Remote\resources\카탈로그\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E30D65-60B8-451C-94EE-BFED892AD7F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6108D4E-5049-4774-951E-327DA5480980}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2445" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="34" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -226,6 +226,14 @@
   </si>
   <si>
     <t>Stack Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없애자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  nb </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,13 +286,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -500,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30ED5228-4892-417D-956A-B250DAECD1FE}">
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1293,6 +1303,41 @@
         <v>14</v>
       </c>
     </row>
+    <row r="15" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>37</v>
@@ -1496,6 +1541,33 @@
       <c r="J23" t="s">
         <v>5</v>
       </c>
+      <c r="N23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
@@ -1585,6 +1657,12 @@
       <c r="L28" t="s">
         <v>27</v>
       </c>
+      <c r="Q28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="H29" t="s">
@@ -1621,7 +1699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H33" t="s">
         <v>8</v>
       </c>
@@ -1632,7 +1710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F38" t="s">
         <v>26</v>
       </c>
@@ -1642,87 +1720,31 @@
       <c r="H38" t="s">
         <v>24</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V38" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="H39" s="3" t="s">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="E40" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="V40" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F55" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resources/카탈로그/카탈디비.xlsx
+++ b/resources/카탈로그/카탈디비.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modelmaker\remoteCode\ACNH\Git Remote\resources\카탈로그\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6108D4E-5049-4774-951E-327DA5480980}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC4F3E8-7848-4FBE-A81F-2D6F5961FD89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2445" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{B2BB56DF-1DAB-40F6-B5A2-2B4DC8A279FA}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{3A71F28E-2A8A-414F-BABF-14B2193B83B3}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{2B096AB0-120D-4186-A0B1-5BB772C6E557}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{3A71F28E-2A8A-414F-BABF-14B2193B83B3}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{B2BB56DF-1DAB-40F6-B5A2-2B4DC8A279FA}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -86,18 +86,6 @@
     <t>Source Notes</t>
   </si>
   <si>
-    <t>HHA Concept 1</t>
-  </si>
-  <si>
-    <t>HHA Concept 2</t>
-  </si>
-  <si>
-    <t>HHA Series</t>
-  </si>
-  <si>
-    <t>HHA Set</t>
-  </si>
-  <si>
     <t>Catalog</t>
   </si>
   <si>
@@ -138,9 +126,6 @@
   </si>
   <si>
     <t>Label Themes</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>Framed Image</t>
@@ -226,14 +211,6 @@
   </si>
   <si>
     <t>Stack Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없애자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  nb </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +490,7 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -526,126 +503,126 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="S1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S1" t="s">
-        <v>55</v>
-      </c>
       <c r="T1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="V1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="V2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -715,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -745,31 +722,31 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="T4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="U4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -1049,7 +1026,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N10" t="s">
         <v>12</v>
@@ -1140,58 +1117,58 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="R12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="S12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="T12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="V12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -1305,110 +1282,110 @@
     </row>
     <row r="15" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="R18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="T18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="U18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="V18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="S19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="T19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="U19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
@@ -1428,28 +1405,28 @@
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
@@ -1466,28 +1443,28 @@
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="S21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
@@ -1542,31 +1519,31 @@
         <v>5</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
@@ -1587,107 +1564,30 @@
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" t="s">
-        <v>17</v>
-      </c>
       <c r="L26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>35</v>
-      </c>
-      <c r="R27" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" t="s">
-        <v>19</v>
-      </c>
       <c r="L28" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="H29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" t="s">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="L31" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H32" t="s">
         <v>7</v>
@@ -1710,37 +1610,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H39" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>62</v>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F55" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="F55" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/resources/카탈로그/카탈디비.xlsx
+++ b/resources/카탈로그/카탈디비.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modelmaker\remoteCode\ACNH\Git Remote\resources\카탈로그\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC4F3E8-7848-4FBE-A81F-2D6F5961FD89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B2500A-532A-49B7-82EC-3E3FEFEF2665}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2445" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="34" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{2B096AB0-120D-4186-A0B1-5BB772C6E557}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{3A71F28E-2A8A-414F-BABF-14B2193B83B3}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{B2BB56DF-1DAB-40F6-B5A2-2B4DC8A279FA}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{3A71F28E-2A8A-414F-BABF-14B2193B83B3}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{2B096AB0-120D-4186-A0B1-5BB772C6E557}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -490,7 +490,7 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1315,7 +1315,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>18</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>2</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>3</v>
       </c>
@@ -1442,6 +1442,9 @@
       <c r="J21" t="s">
         <v>3</v>
       </c>
+      <c r="L21" t="s">
+        <v>3</v>
+      </c>
       <c r="N21" t="s">
         <v>30</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>4</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>5</v>
       </c>
@@ -1546,7 +1549,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>9</v>
       </c>
@@ -1563,78 +1566,65 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>7</v>
+      </c>
       <c r="L26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
       <c r="L28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="L31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H33" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H35" s="2" t="s">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.2">

--- a/resources/카탈로그/카탈디비.xlsx
+++ b/resources/카탈로그/카탈디비.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modelmaker\remoteCode\ACNH\Git Remote\resources\카탈로그\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B2500A-532A-49B7-82EC-3E3FEFEF2665}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF367C4-C255-4C8B-B8F9-9AE96588D07B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{B2BB56DF-1DAB-40F6-B5A2-2B4DC8A279FA}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{3A71F28E-2A8A-414F-BABF-14B2193B83B3}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{2B096AB0-120D-4186-A0B1-5BB772C6E557}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{3A71F28E-2A8A-414F-BABF-14B2193B83B3}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{B2BB56DF-1DAB-40F6-B5A2-2B4DC8A279FA}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -189,10 +189,6 @@
   </si>
   <si>
     <t>Accessories</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Color 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -490,7 +486,7 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -998,6 +994,9 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -1025,8 +1024,8 @@
       <c r="J10" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>52</v>
+      <c r="L10" t="s">
+        <v>12</v>
       </c>
       <c r="N10" t="s">
         <v>12</v>
@@ -1057,6 +1056,9 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -1116,6 +1118,9 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -1141,6 +1146,9 @@
         <v>17</v>
       </c>
       <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
         <v>17</v>
       </c>
       <c r="N12" t="s">
@@ -1175,6 +1183,12 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
@@ -1228,6 +1242,9 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -1240,6 +1257,12 @@
       <c r="E14" t="s">
         <v>14</v>
       </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
       <c r="H14" t="s">
         <v>14</v>
       </c>
@@ -1281,38 +1304,65 @@
       </c>
     </row>
     <row r="15" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="L15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
@@ -1522,31 +1572,31 @@
         <v>5</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
@@ -1615,16 +1665,16 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.2">
